--- a/dashboard/Data/SDG7_1.xlsx
+++ b/dashboard/Data/SDG7_1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>OSEMOSYS</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Fuel</t>
   </si>
   <si>
-    <t>Electricity for appliances</t>
-  </si>
-  <si>
-    <t>Electricity for cooling</t>
-  </si>
-  <si>
     <t>RES_COOL_002</t>
   </si>
   <si>
@@ -52,6 +46,9 @@
   </si>
   <si>
     <t>Cooling new users</t>
+  </si>
+  <si>
+    <t>Electricity for new users</t>
   </si>
 </sst>
 </file>
@@ -412,7 +409,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -442,30 +439,30 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard/Data/SDG7_1.xlsx
+++ b/dashboard/Data/SDG7_1.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -445,7 +445,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -459,7 +459,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>

--- a/dashboard/Data/SDG7_1.xlsx
+++ b/dashboard/Data/SDG7_1.xlsx
@@ -24,9 +24,6 @@
     <t>OSEMOSYS</t>
   </si>
   <si>
-    <t>VISUALIZATION</t>
-  </si>
-  <si>
     <t>Use</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>Electricity for new users</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -408,9 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -422,16 +420,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="5"/>
       <c r="H1" s="5"/>
@@ -439,30 +437,30 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
